--- a/Artifacts/Communications_Schedule.xlsx
+++ b/Artifacts/Communications_Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Files\school\ElBowSpace\ElBowSpaceProject\Project Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Files\school\ElBowSpace\ElBowSpaceProject\Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82256C-756F-471A-9CAA-EF77BBAFD667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B04D566-10BA-40E1-B393-D860767C737C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-60" windowWidth="28110" windowHeight="16440" xr2:uid="{E0AF5B77-DE17-4099-AB3F-404B0275087A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Communication</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Task Status Report</t>
-  </si>
-  <si>
-    <t>Project status report</t>
   </si>
   <si>
     <t>Weekly</t>
@@ -148,6 +145,13 @@
   </si>
   <si>
     <t>Project Communications Schedule</t>
+  </si>
+  <si>
+    <t>Project status Report</t>
+  </si>
+  <si>
+    <t>Daily
+as needed</t>
   </si>
 </sst>
 </file>
@@ -393,14 +397,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,45 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -768,7 +772,7 @@
   <dimension ref="C1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,159 +785,159 @@
   <sheetData>
     <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>20</v>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="3:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="3:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
